--- a/experiment_results/backup_result/worst_case/Elevator/1wise/0.5_worst_case.xlsx
+++ b/experiment_results/backup_result/worst_case/Elevator/1wise/0.5_worst_case.xlsx
@@ -22,13 +22,15 @@
     <sheet name="rogot1" sheetId="13" r:id="rId13"/>
     <sheet name="geometric_mean" sheetId="14" r:id="rId14"/>
     <sheet name="m2" sheetId="15" r:id="rId15"/>
+    <sheet name="wong1" sheetId="16" r:id="rId16"/>
+    <sheet name="sokal" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="36">
   <si>
     <t>MUTATED_PROJECT</t>
   </si>
@@ -519,7 +521,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>294</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -615,7 +617,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -647,7 +649,7 @@
         <v>95</v>
       </c>
       <c r="E6">
-        <v>293</v>
+        <v>127</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -679,7 +681,7 @@
         <v>131</v>
       </c>
       <c r="E7">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -743,7 +745,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>293</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -775,7 +777,7 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G10">
         <v>30</v>
@@ -839,7 +841,7 @@
         <v>63</v>
       </c>
       <c r="E12">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -967,7 +969,7 @@
         <v>7</v>
       </c>
       <c r="E16">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1127,7 +1129,7 @@
         <v>6</v>
       </c>
       <c r="E21">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -1191,7 +1193,7 @@
         <v>9</v>
       </c>
       <c r="E23">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>13</v>
@@ -1287,7 +1289,7 @@
         <v>83</v>
       </c>
       <c r="E26">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="G26">
         <v>6</v>
@@ -1319,7 +1321,7 @@
         <v>155</v>
       </c>
       <c r="E27">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="G27">
         <v>9</v>
@@ -1396,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>294</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -1492,7 +1494,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -1524,7 +1526,7 @@
         <v>8</v>
       </c>
       <c r="E6">
-        <v>293</v>
+        <v>127</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -1556,7 +1558,7 @@
         <v>131</v>
       </c>
       <c r="E7">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -1620,7 +1622,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>293</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -1652,7 +1654,7 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G10">
         <v>30</v>
@@ -1716,7 +1718,7 @@
         <v>63</v>
       </c>
       <c r="E12">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -1844,7 +1846,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -2004,7 +2006,7 @@
         <v>5</v>
       </c>
       <c r="E21">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -2068,7 +2070,7 @@
         <v>8</v>
       </c>
       <c r="E23">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>6</v>
@@ -2164,7 +2166,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2196,7 +2198,7 @@
         <v>58</v>
       </c>
       <c r="E27">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -2273,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>294</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -2369,7 +2371,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -2401,7 +2403,7 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>293</v>
+        <v>127</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -2433,7 +2435,7 @@
         <v>131</v>
       </c>
       <c r="E7">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -2497,7 +2499,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>293</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -2529,7 +2531,7 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G10">
         <v>30</v>
@@ -2593,7 +2595,7 @@
         <v>63</v>
       </c>
       <c r="E12">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2721,7 +2723,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -2881,7 +2883,7 @@
         <v>5</v>
       </c>
       <c r="E21">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -2945,7 +2947,7 @@
         <v>9</v>
       </c>
       <c r="E23">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>11</v>
@@ -3041,7 +3043,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -3073,7 +3075,7 @@
         <v>58</v>
       </c>
       <c r="E27">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -3150,7 +3152,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <v>294</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -3246,7 +3248,7 @@
         <v>5</v>
       </c>
       <c r="E5">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G5">
         <v>264</v>
@@ -3278,7 +3280,7 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>293</v>
+        <v>127</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -3301,16 +3303,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>292</v>
+        <v>136</v>
       </c>
       <c r="C7">
-        <v>292</v>
+        <v>152</v>
       </c>
       <c r="D7">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E7">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>295</v>
@@ -3365,16 +3367,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>293</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>293</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>293</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>363</v>
@@ -3397,16 +3399,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>294</v>
+        <v>39</v>
       </c>
       <c r="C10">
-        <v>294</v>
+        <v>36</v>
       </c>
       <c r="D10">
-        <v>294</v>
+        <v>39</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G10">
         <v>360</v>
@@ -3470,7 +3472,7 @@
         <v>66</v>
       </c>
       <c r="E12">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -3589,16 +3591,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="C16">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="E16">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="G16">
         <v>7</v>
@@ -3749,16 +3751,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>294</v>
+        <v>18</v>
       </c>
       <c r="C21">
-        <v>294</v>
+        <v>17</v>
       </c>
       <c r="D21">
-        <v>294</v>
+        <v>18</v>
       </c>
       <c r="E21">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="G21">
         <v>375</v>
@@ -3813,16 +3815,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="C23">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="D23">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E23">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>85</v>
@@ -3918,7 +3920,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -3950,7 +3952,7 @@
         <v>58</v>
       </c>
       <c r="E27">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -4021,13 +4023,13 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2">
-        <v>294</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -4117,13 +4119,13 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G5">
         <v>264</v>
@@ -4155,7 +4157,7 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>293</v>
+        <v>127</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -4178,16 +4180,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>218</v>
+        <v>136</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="E7">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>295</v>
@@ -4242,16 +4244,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>288</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>288</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>293</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>363</v>
@@ -4274,16 +4276,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>218</v>
+        <v>39</v>
       </c>
       <c r="C10">
-        <v>224</v>
+        <v>43</v>
       </c>
       <c r="D10">
-        <v>218</v>
+        <v>39</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G10">
         <v>360</v>
@@ -4347,7 +4349,7 @@
         <v>66</v>
       </c>
       <c r="E12">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -4466,16 +4468,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E16">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="G16">
         <v>7</v>
@@ -4626,16 +4628,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="C21">
-        <v>157</v>
+        <v>24</v>
       </c>
       <c r="D21">
-        <v>141</v>
+        <v>18</v>
       </c>
       <c r="E21">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="G21">
         <v>375</v>
@@ -4690,16 +4692,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="C23">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>276</v>
+        <v>47</v>
       </c>
       <c r="E23">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>85</v>
@@ -4795,7 +4797,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -4827,7 +4829,7 @@
         <v>58</v>
       </c>
       <c r="E27">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -4904,7 +4906,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>294</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -5000,7 +5002,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -5032,7 +5034,7 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>293</v>
+        <v>127</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -5064,7 +5066,7 @@
         <v>131</v>
       </c>
       <c r="E7">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -5128,7 +5130,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>293</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -5160,7 +5162,7 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G10">
         <v>15</v>
@@ -5224,7 +5226,7 @@
         <v>18</v>
       </c>
       <c r="E12">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -5352,7 +5354,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -5512,7 +5514,7 @@
         <v>4</v>
       </c>
       <c r="E21">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="G21">
         <v>16</v>
@@ -5576,7 +5578,7 @@
         <v>8</v>
       </c>
       <c r="E23">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -5672,7 +5674,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -5704,7 +5706,7 @@
         <v>58</v>
       </c>
       <c r="E27">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -5781,7 +5783,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>294</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -5877,7 +5879,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -5909,7 +5911,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>293</v>
+        <v>127</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -5941,7 +5943,7 @@
         <v>131</v>
       </c>
       <c r="E7">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -6005,7 +6007,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>293</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -6037,7 +6039,7 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G10">
         <v>13</v>
@@ -6101,7 +6103,7 @@
         <v>13</v>
       </c>
       <c r="E12">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -6229,7 +6231,7 @@
         <v>7</v>
       </c>
       <c r="E16">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -6389,7 +6391,7 @@
         <v>2</v>
       </c>
       <c r="E21">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="G21">
         <v>12</v>
@@ -6453,7 +6455,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -6549,7 +6551,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -6581,7 +6583,1761 @@
         <v>52</v>
       </c>
       <c r="E27">
-        <v>293</v>
+        <v>222</v>
+      </c>
+      <c r="G27">
+        <v>7</v>
+      </c>
+      <c r="H27">
+        <v>449</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+      <c r="K27">
+        <v>22</v>
+      </c>
+      <c r="L27">
+        <v>449</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>57</v>
+      </c>
+      <c r="C2">
+        <v>12</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>67</v>
+      </c>
+      <c r="G2">
+        <v>79</v>
+      </c>
+      <c r="H2">
+        <v>449</v>
+      </c>
+      <c r="J2">
+        <v>12</v>
+      </c>
+      <c r="K2">
+        <v>396</v>
+      </c>
+      <c r="L2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <v>449</v>
+      </c>
+      <c r="J3">
+        <v>16</v>
+      </c>
+      <c r="K3">
+        <v>449</v>
+      </c>
+      <c r="L3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>449</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>425</v>
+      </c>
+      <c r="L4">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="D5">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>77</v>
+      </c>
+      <c r="G5">
+        <v>33</v>
+      </c>
+      <c r="H5">
+        <v>449</v>
+      </c>
+      <c r="J5">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>396</v>
+      </c>
+      <c r="L5">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>127</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>449</v>
+      </c>
+      <c r="J6">
+        <v>11</v>
+      </c>
+      <c r="K6">
+        <v>389</v>
+      </c>
+      <c r="L6">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>210</v>
+      </c>
+      <c r="C7">
+        <v>32</v>
+      </c>
+      <c r="D7">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>210</v>
+      </c>
+      <c r="G7">
+        <v>292</v>
+      </c>
+      <c r="H7">
+        <v>449</v>
+      </c>
+      <c r="J7">
+        <v>13</v>
+      </c>
+      <c r="K7">
+        <v>427</v>
+      </c>
+      <c r="L7">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>449</v>
+      </c>
+      <c r="J8">
+        <v>16</v>
+      </c>
+      <c r="K8">
+        <v>449</v>
+      </c>
+      <c r="L8">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>449</v>
+      </c>
+      <c r="J9">
+        <v>12</v>
+      </c>
+      <c r="K9">
+        <v>396</v>
+      </c>
+      <c r="L9">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>77</v>
+      </c>
+      <c r="G10">
+        <v>33</v>
+      </c>
+      <c r="H10">
+        <v>449</v>
+      </c>
+      <c r="J10">
+        <v>12</v>
+      </c>
+      <c r="K10">
+        <v>396</v>
+      </c>
+      <c r="L10">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>-1</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>23</v>
+      </c>
+      <c r="H11">
+        <v>449</v>
+      </c>
+      <c r="J11">
+        <v>16</v>
+      </c>
+      <c r="K11">
+        <v>449</v>
+      </c>
+      <c r="L11">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>140</v>
+      </c>
+      <c r="C12">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>14</v>
+      </c>
+      <c r="E12">
+        <v>215</v>
+      </c>
+      <c r="G12">
+        <v>185</v>
+      </c>
+      <c r="H12">
+        <v>449</v>
+      </c>
+      <c r="J12">
+        <v>12</v>
+      </c>
+      <c r="K12">
+        <v>396</v>
+      </c>
+      <c r="L12">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>-1</v>
+      </c>
+      <c r="C13">
+        <v>-1</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>17</v>
+      </c>
+      <c r="H13">
+        <v>449</v>
+      </c>
+      <c r="J13">
+        <v>16</v>
+      </c>
+      <c r="K13">
+        <v>449</v>
+      </c>
+      <c r="L13">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>-1</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+      <c r="D14">
+        <v>-1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+      <c r="H14">
+        <v>449</v>
+      </c>
+      <c r="J14">
+        <v>16</v>
+      </c>
+      <c r="K14">
+        <v>449</v>
+      </c>
+      <c r="L14">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>-1</v>
+      </c>
+      <c r="C15">
+        <v>-1</v>
+      </c>
+      <c r="D15">
+        <v>-1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>449</v>
+      </c>
+      <c r="J15">
+        <v>16</v>
+      </c>
+      <c r="K15">
+        <v>449</v>
+      </c>
+      <c r="L15">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>53</v>
+      </c>
+      <c r="C16">
+        <v>29</v>
+      </c>
+      <c r="D16">
+        <v>29</v>
+      </c>
+      <c r="E16">
+        <v>225</v>
+      </c>
+      <c r="G16">
+        <v>28</v>
+      </c>
+      <c r="H16">
+        <v>449</v>
+      </c>
+      <c r="J16">
+        <v>9</v>
+      </c>
+      <c r="K16">
+        <v>374</v>
+      </c>
+      <c r="L16">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>-1</v>
+      </c>
+      <c r="C17">
+        <v>-1</v>
+      </c>
+      <c r="D17">
+        <v>-1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>449</v>
+      </c>
+      <c r="J17">
+        <v>16</v>
+      </c>
+      <c r="K17">
+        <v>449</v>
+      </c>
+      <c r="L17">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>-1</v>
+      </c>
+      <c r="C18">
+        <v>-1</v>
+      </c>
+      <c r="D18">
+        <v>-1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
+      <c r="H18">
+        <v>449</v>
+      </c>
+      <c r="J18">
+        <v>16</v>
+      </c>
+      <c r="K18">
+        <v>449</v>
+      </c>
+      <c r="L18">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>-1</v>
+      </c>
+      <c r="C19">
+        <v>-1</v>
+      </c>
+      <c r="D19">
+        <v>-1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>17</v>
+      </c>
+      <c r="H19">
+        <v>449</v>
+      </c>
+      <c r="J19">
+        <v>16</v>
+      </c>
+      <c r="K19">
+        <v>449</v>
+      </c>
+      <c r="L19">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>-1</v>
+      </c>
+      <c r="C20">
+        <v>-1</v>
+      </c>
+      <c r="D20">
+        <v>-1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>449</v>
+      </c>
+      <c r="J20">
+        <v>16</v>
+      </c>
+      <c r="K20">
+        <v>449</v>
+      </c>
+      <c r="L20">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>22</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21">
+        <v>60</v>
+      </c>
+      <c r="G21">
+        <v>27</v>
+      </c>
+      <c r="H21">
+        <v>449</v>
+      </c>
+      <c r="J21">
+        <v>12</v>
+      </c>
+      <c r="K21">
+        <v>396</v>
+      </c>
+      <c r="L21">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>-1</v>
+      </c>
+      <c r="C22">
+        <v>-1</v>
+      </c>
+      <c r="D22">
+        <v>-1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>449</v>
+      </c>
+      <c r="J22">
+        <v>16</v>
+      </c>
+      <c r="K22">
+        <v>449</v>
+      </c>
+      <c r="L22">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>50</v>
+      </c>
+      <c r="G23">
+        <v>7</v>
+      </c>
+      <c r="H23">
+        <v>449</v>
+      </c>
+      <c r="J23">
+        <v>12</v>
+      </c>
+      <c r="K23">
+        <v>396</v>
+      </c>
+      <c r="L23">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-1</v>
+      </c>
+      <c r="C24">
+        <v>-1</v>
+      </c>
+      <c r="D24">
+        <v>-1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>17</v>
+      </c>
+      <c r="H24">
+        <v>449</v>
+      </c>
+      <c r="J24">
+        <v>16</v>
+      </c>
+      <c r="K24">
+        <v>449</v>
+      </c>
+      <c r="L24">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>-1</v>
+      </c>
+      <c r="C25">
+        <v>-1</v>
+      </c>
+      <c r="D25">
+        <v>-1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>17</v>
+      </c>
+      <c r="H25">
+        <v>449</v>
+      </c>
+      <c r="J25">
+        <v>16</v>
+      </c>
+      <c r="K25">
+        <v>449</v>
+      </c>
+      <c r="L25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>147</v>
+      </c>
+      <c r="G26">
+        <v>9</v>
+      </c>
+      <c r="H26">
+        <v>449</v>
+      </c>
+      <c r="J26">
+        <v>12</v>
+      </c>
+      <c r="K26">
+        <v>396</v>
+      </c>
+      <c r="L26">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>86</v>
+      </c>
+      <c r="C27">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>222</v>
+      </c>
+      <c r="G27">
+        <v>115</v>
+      </c>
+      <c r="H27">
+        <v>449</v>
+      </c>
+      <c r="J27">
+        <v>12</v>
+      </c>
+      <c r="K27">
+        <v>396</v>
+      </c>
+      <c r="L27">
+        <v>449</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>67</v>
+      </c>
+      <c r="G2">
+        <v>218</v>
+      </c>
+      <c r="H2">
+        <v>449</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <v>30</v>
+      </c>
+      <c r="L2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>286</v>
+      </c>
+      <c r="H3">
+        <v>449</v>
+      </c>
+      <c r="J3">
+        <v>16</v>
+      </c>
+      <c r="K3">
+        <v>449</v>
+      </c>
+      <c r="L3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>449</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>425</v>
+      </c>
+      <c r="L4">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <v>29</v>
+      </c>
+      <c r="E5">
+        <v>77</v>
+      </c>
+      <c r="G5">
+        <v>357</v>
+      </c>
+      <c r="H5">
+        <v>449</v>
+      </c>
+      <c r="J5">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>439</v>
+      </c>
+      <c r="L5">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>127</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>449</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>22</v>
+      </c>
+      <c r="L6">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>136</v>
+      </c>
+      <c r="C7">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>131</v>
+      </c>
+      <c r="E7">
+        <v>210</v>
+      </c>
+      <c r="G7">
+        <v>305</v>
+      </c>
+      <c r="H7">
+        <v>449</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>61</v>
+      </c>
+      <c r="L7">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>-1</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>22</v>
+      </c>
+      <c r="H8">
+        <v>449</v>
+      </c>
+      <c r="J8">
+        <v>16</v>
+      </c>
+      <c r="K8">
+        <v>449</v>
+      </c>
+      <c r="L8">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>379</v>
+      </c>
+      <c r="H9">
+        <v>449</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>22</v>
+      </c>
+      <c r="L9">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>52</v>
+      </c>
+      <c r="C10">
+        <v>54</v>
+      </c>
+      <c r="D10">
+        <v>52</v>
+      </c>
+      <c r="E10">
+        <v>77</v>
+      </c>
+      <c r="G10">
+        <v>392</v>
+      </c>
+      <c r="H10">
+        <v>449</v>
+      </c>
+      <c r="J10">
+        <v>15</v>
+      </c>
+      <c r="K10">
+        <v>439</v>
+      </c>
+      <c r="L10">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>-1</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>392</v>
+      </c>
+      <c r="H11">
+        <v>449</v>
+      </c>
+      <c r="J11">
+        <v>16</v>
+      </c>
+      <c r="K11">
+        <v>449</v>
+      </c>
+      <c r="L11">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>90</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>88</v>
+      </c>
+      <c r="E12">
+        <v>215</v>
+      </c>
+      <c r="G12">
+        <v>77</v>
+      </c>
+      <c r="H12">
+        <v>449</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>22</v>
+      </c>
+      <c r="L12">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>-1</v>
+      </c>
+      <c r="C13">
+        <v>-1</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>411</v>
+      </c>
+      <c r="H13">
+        <v>449</v>
+      </c>
+      <c r="J13">
+        <v>16</v>
+      </c>
+      <c r="K13">
+        <v>449</v>
+      </c>
+      <c r="L13">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>-1</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+      <c r="D14">
+        <v>-1</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+      <c r="H14">
+        <v>449</v>
+      </c>
+      <c r="J14">
+        <v>16</v>
+      </c>
+      <c r="K14">
+        <v>449</v>
+      </c>
+      <c r="L14">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>-1</v>
+      </c>
+      <c r="C15">
+        <v>-1</v>
+      </c>
+      <c r="D15">
+        <v>-1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>366</v>
+      </c>
+      <c r="H15">
+        <v>449</v>
+      </c>
+      <c r="J15">
+        <v>16</v>
+      </c>
+      <c r="K15">
+        <v>449</v>
+      </c>
+      <c r="L15">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>133</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>132</v>
+      </c>
+      <c r="E16">
+        <v>225</v>
+      </c>
+      <c r="G16">
+        <v>279</v>
+      </c>
+      <c r="H16">
+        <v>449</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>8</v>
+      </c>
+      <c r="L16">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>-1</v>
+      </c>
+      <c r="C17">
+        <v>-1</v>
+      </c>
+      <c r="D17">
+        <v>-1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>208</v>
+      </c>
+      <c r="H17">
+        <v>449</v>
+      </c>
+      <c r="J17">
+        <v>16</v>
+      </c>
+      <c r="K17">
+        <v>449</v>
+      </c>
+      <c r="L17">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>-1</v>
+      </c>
+      <c r="C18">
+        <v>-1</v>
+      </c>
+      <c r="D18">
+        <v>-1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>411</v>
+      </c>
+      <c r="H18">
+        <v>449</v>
+      </c>
+      <c r="J18">
+        <v>16</v>
+      </c>
+      <c r="K18">
+        <v>449</v>
+      </c>
+      <c r="L18">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>-1</v>
+      </c>
+      <c r="C19">
+        <v>-1</v>
+      </c>
+      <c r="D19">
+        <v>-1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>329</v>
+      </c>
+      <c r="H19">
+        <v>449</v>
+      </c>
+      <c r="J19">
+        <v>16</v>
+      </c>
+      <c r="K19">
+        <v>449</v>
+      </c>
+      <c r="L19">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>-1</v>
+      </c>
+      <c r="C20">
+        <v>-1</v>
+      </c>
+      <c r="D20">
+        <v>-1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>33</v>
+      </c>
+      <c r="H20">
+        <v>449</v>
+      </c>
+      <c r="J20">
+        <v>16</v>
+      </c>
+      <c r="K20">
+        <v>449</v>
+      </c>
+      <c r="L20">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>36</v>
+      </c>
+      <c r="D21">
+        <v>34</v>
+      </c>
+      <c r="E21">
+        <v>60</v>
+      </c>
+      <c r="G21">
+        <v>405</v>
+      </c>
+      <c r="H21">
+        <v>449</v>
+      </c>
+      <c r="J21">
+        <v>15</v>
+      </c>
+      <c r="K21">
+        <v>439</v>
+      </c>
+      <c r="L21">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>-1</v>
+      </c>
+      <c r="C22">
+        <v>-1</v>
+      </c>
+      <c r="D22">
+        <v>-1</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>449</v>
+      </c>
+      <c r="J22">
+        <v>16</v>
+      </c>
+      <c r="K22">
+        <v>449</v>
+      </c>
+      <c r="L22">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+      <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <v>47</v>
+      </c>
+      <c r="E23">
+        <v>50</v>
+      </c>
+      <c r="G23">
+        <v>382</v>
+      </c>
+      <c r="H23">
+        <v>449</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>22</v>
+      </c>
+      <c r="L23">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>-1</v>
+      </c>
+      <c r="C24">
+        <v>-1</v>
+      </c>
+      <c r="D24">
+        <v>-1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>330</v>
+      </c>
+      <c r="H24">
+        <v>449</v>
+      </c>
+      <c r="J24">
+        <v>16</v>
+      </c>
+      <c r="K24">
+        <v>449</v>
+      </c>
+      <c r="L24">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>-1</v>
+      </c>
+      <c r="C25">
+        <v>-1</v>
+      </c>
+      <c r="D25">
+        <v>-1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>449</v>
+      </c>
+      <c r="J25">
+        <v>16</v>
+      </c>
+      <c r="K25">
+        <v>449</v>
+      </c>
+      <c r="L25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>147</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>449</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>22</v>
+      </c>
+      <c r="L26">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>79</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>62</v>
+      </c>
+      <c r="E27">
+        <v>222</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -6658,7 +8414,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>294</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -6754,7 +8510,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -6786,7 +8542,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>293</v>
+        <v>127</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -6818,7 +8574,7 @@
         <v>131</v>
       </c>
       <c r="E7">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -6882,7 +8638,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>293</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -6914,7 +8670,7 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G10">
         <v>15</v>
@@ -6978,7 +8734,7 @@
         <v>17</v>
       </c>
       <c r="E12">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -7106,7 +8862,7 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -7266,7 +9022,7 @@
         <v>4</v>
       </c>
       <c r="E21">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="G21">
         <v>16</v>
@@ -7330,7 +9086,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -7426,7 +9182,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -7458,7 +9214,7 @@
         <v>58</v>
       </c>
       <c r="E27">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -7535,7 +9291,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>294</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -7631,7 +9387,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -7663,7 +9419,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>293</v>
+        <v>127</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -7695,7 +9451,7 @@
         <v>131</v>
       </c>
       <c r="E7">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -7759,7 +9515,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>293</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -7791,7 +9547,7 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G10">
         <v>13</v>
@@ -7855,7 +9611,7 @@
         <v>13</v>
       </c>
       <c r="E12">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -7983,7 +9739,7 @@
         <v>3</v>
       </c>
       <c r="E16">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -8143,7 +9899,7 @@
         <v>2</v>
       </c>
       <c r="E21">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="G21">
         <v>12</v>
@@ -8207,7 +9963,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -8303,7 +10059,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -8335,7 +10091,7 @@
         <v>52</v>
       </c>
       <c r="E27">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -8412,7 +10168,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>294</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -8508,7 +10264,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -8540,7 +10296,7 @@
         <v>95</v>
       </c>
       <c r="E6">
-        <v>293</v>
+        <v>127</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -8572,7 +10328,7 @@
         <v>131</v>
       </c>
       <c r="E7">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -8636,7 +10392,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>293</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -8668,7 +10424,7 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G10">
         <v>30</v>
@@ -8732,7 +10488,7 @@
         <v>63</v>
       </c>
       <c r="E12">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -8860,7 +10616,7 @@
         <v>4</v>
       </c>
       <c r="E16">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -9020,7 +10776,7 @@
         <v>6</v>
       </c>
       <c r="E21">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="G21">
         <v>26</v>
@@ -9084,7 +10840,7 @@
         <v>9</v>
       </c>
       <c r="E23">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>13</v>
@@ -9180,7 +10936,7 @@
         <v>83</v>
       </c>
       <c r="E26">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="G26">
         <v>6</v>
@@ -9212,7 +10968,7 @@
         <v>155</v>
       </c>
       <c r="E27">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="G27">
         <v>9</v>
@@ -9280,16 +11036,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>294</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -9376,16 +11132,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -9408,16 +11164,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>293</v>
+        <v>127</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -9440,16 +11196,16 @@
         <v>15</v>
       </c>
       <c r="B7">
+        <v>136</v>
+      </c>
+      <c r="C7">
+        <v>96</v>
+      </c>
+      <c r="D7">
+        <v>131</v>
+      </c>
+      <c r="E7">
         <v>210</v>
-      </c>
-      <c r="C7">
-        <v>32</v>
-      </c>
-      <c r="D7">
-        <v>32</v>
-      </c>
-      <c r="E7">
-        <v>292</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -9504,16 +11260,16 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
         <v>8</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>293</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -9536,16 +11292,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G10">
         <v>15</v>
@@ -9600,16 +11356,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E12">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -9728,16 +11484,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C16">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="E16">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -9888,16 +11644,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E21">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="G21">
         <v>16</v>
@@ -9961,7 +11717,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -10048,16 +11804,16 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -10080,16 +11836,16 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="C27">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D27">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="E27">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -10166,7 +11922,7 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>294</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>79</v>
@@ -10262,7 +12018,7 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G5">
         <v>33</v>
@@ -10294,7 +12050,7 @@
         <v>2</v>
       </c>
       <c r="E6">
-        <v>293</v>
+        <v>127</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -10326,7 +12082,7 @@
         <v>32</v>
       </c>
       <c r="E7">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>292</v>
@@ -10390,7 +12146,7 @@
         <v>4</v>
       </c>
       <c r="E9">
-        <v>293</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>11</v>
@@ -10422,7 +12178,7 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G10">
         <v>33</v>
@@ -10486,7 +12242,7 @@
         <v>14</v>
       </c>
       <c r="E12">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="G12">
         <v>185</v>
@@ -10614,7 +12370,7 @@
         <v>8</v>
       </c>
       <c r="E16">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="G16">
         <v>28</v>
@@ -10774,7 +12530,7 @@
         <v>20</v>
       </c>
       <c r="E21">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="G21">
         <v>27</v>
@@ -10838,7 +12594,7 @@
         <v>3</v>
       </c>
       <c r="E23">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>7</v>
@@ -10934,7 +12690,7 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="G26">
         <v>9</v>
@@ -10966,7 +12722,7 @@
         <v>12</v>
       </c>
       <c r="E27">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="G27">
         <v>115</v>
@@ -11034,16 +12790,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>174</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="D2">
-        <v>160</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>294</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>218</v>
@@ -11130,16 +12886,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>226</v>
+        <v>29</v>
       </c>
       <c r="C5">
-        <v>234</v>
+        <v>35</v>
       </c>
       <c r="D5">
-        <v>226</v>
+        <v>29</v>
       </c>
       <c r="E5">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G5">
         <v>357</v>
@@ -11171,7 +12927,7 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>293</v>
+        <v>127</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -11194,16 +12950,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>218</v>
+        <v>136</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="E7">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>305</v>
@@ -11258,16 +13014,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>288</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>268</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>288</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>293</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>379</v>
@@ -11290,16 +13046,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>264</v>
+        <v>52</v>
       </c>
       <c r="C10">
-        <v>267</v>
+        <v>54</v>
       </c>
       <c r="D10">
-        <v>264</v>
+        <v>52</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G10">
         <v>392</v>
@@ -11354,16 +13110,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="E12">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="G12">
         <v>77</v>
@@ -11482,16 +13238,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>238</v>
+        <v>133</v>
       </c>
       <c r="C16">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>237</v>
+        <v>132</v>
       </c>
       <c r="E16">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="G16">
         <v>279</v>
@@ -11642,16 +13398,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>263</v>
+        <v>34</v>
       </c>
       <c r="C21">
-        <v>266</v>
+        <v>36</v>
       </c>
       <c r="D21">
-        <v>263</v>
+        <v>34</v>
       </c>
       <c r="E21">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="G21">
         <v>405</v>
@@ -11706,16 +13462,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="C23">
-        <v>263</v>
+        <v>34</v>
       </c>
       <c r="D23">
-        <v>276</v>
+        <v>47</v>
       </c>
       <c r="E23">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>382</v>
@@ -11811,7 +13567,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -11843,7 +13599,7 @@
         <v>62</v>
       </c>
       <c r="E27">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -11911,16 +13667,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>174</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>160</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>294</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>218</v>
@@ -12007,16 +13763,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>226</v>
+        <v>29</v>
       </c>
       <c r="C5">
-        <v>234</v>
+        <v>35</v>
       </c>
       <c r="D5">
-        <v>226</v>
+        <v>29</v>
       </c>
       <c r="E5">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G5">
         <v>357</v>
@@ -12048,7 +13804,7 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>293</v>
+        <v>127</v>
       </c>
       <c r="G6">
         <v>5</v>
@@ -12071,16 +13827,16 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>218</v>
+        <v>136</v>
       </c>
       <c r="C7">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="E7">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>305</v>
@@ -12135,16 +13891,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>288</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>275</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>288</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>293</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>379</v>
@@ -12167,16 +13923,16 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>264</v>
+        <v>52</v>
       </c>
       <c r="C10">
-        <v>266</v>
+        <v>53</v>
       </c>
       <c r="D10">
-        <v>264</v>
+        <v>52</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G10">
         <v>392</v>
@@ -12231,16 +13987,16 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="E12">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="G12">
         <v>77</v>
@@ -12359,16 +14115,16 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>239</v>
+        <v>134</v>
       </c>
       <c r="C16">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>238</v>
+        <v>133</v>
       </c>
       <c r="E16">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="G16">
         <v>279</v>
@@ -12519,16 +14275,16 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>263</v>
+        <v>34</v>
       </c>
       <c r="C21">
-        <v>265</v>
+        <v>35</v>
       </c>
       <c r="D21">
-        <v>263</v>
+        <v>34</v>
       </c>
       <c r="E21">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="G21">
         <v>405</v>
@@ -12583,16 +14339,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="C23">
-        <v>276</v>
+        <v>47</v>
       </c>
       <c r="D23">
-        <v>276</v>
+        <v>47</v>
       </c>
       <c r="E23">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>382</v>
@@ -12688,7 +14444,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -12720,7 +14476,7 @@
         <v>62</v>
       </c>
       <c r="E27">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="G27">
         <v>7</v>
@@ -12791,13 +14547,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>294</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>7</v>
@@ -12887,13 +14643,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -12925,7 +14681,7 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>293</v>
+        <v>127</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -12957,7 +14713,7 @@
         <v>131</v>
       </c>
       <c r="E7">
-        <v>292</v>
+        <v>210</v>
       </c>
       <c r="G7">
         <v>154</v>
@@ -13012,16 +14768,16 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>293</v>
+        <v>8</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -13047,13 +14803,13 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>6</v>
       </c>
       <c r="E10">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="G10">
         <v>13</v>
@@ -13117,7 +14873,7 @@
         <v>13</v>
       </c>
       <c r="E12">
-        <v>294</v>
+        <v>215</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -13245,7 +15001,7 @@
         <v>6</v>
       </c>
       <c r="E16">
-        <v>333</v>
+        <v>225</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -13399,13 +15155,13 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>2</v>
       </c>
       <c r="E21">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="G21">
         <v>12</v>
@@ -13460,16 +15216,16 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>132</v>
+        <v>26</v>
       </c>
       <c r="C23">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D23">
-        <v>129</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>279</v>
+        <v>50</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -13565,7 +15321,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -13597,7 +15353,7 @@
         <v>52</v>
       </c>
       <c r="E27">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="G27">
         <v>7</v>
